--- a/Gestion/Plan, Equipo y Gantt.xlsx
+++ b/Gestion/Plan, Equipo y Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dloreto-my.sharepoint.com/personal/jefatura_isc_loreto_tecnm_mx/Documents/JDISC_Repositorio/0.ISC_Jefatura/CDSW/PRY-003/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5F964F0B-0A57-4D84-8E43-A0CDC104E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766D4A0B-4198-4464-A870-FFC5A6ABCDE8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F181884-D50B-344E-A1EA-E69574E1CCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="20480" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="7" r:id="rId1"/>
@@ -39,21 +39,22 @@
     <definedName name="PorcentajeCompletado" localSheetId="0">Equipo!PercentCompleteBeyond*Equipo!PeriodInPlan</definedName>
     <definedName name="PorcentajeCompletado" localSheetId="1">Plan!PercentCompleteBeyond*Plan!PeriodInPlan</definedName>
     <definedName name="PorcentajeCompletado">PercentCompleteBeyond*PeriodInPlan</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Planificador de proyectos'!$3:$4</definedName>
     <definedName name="Real" localSheetId="0">(Equipo!PeriodInActual*(#REF!&gt;0))*Equipo!PeriodInPlan</definedName>
     <definedName name="Real" localSheetId="1">(Plan!PeriodInActual*(#REF!&gt;0))*Plan!PeriodInPlan</definedName>
     <definedName name="Real">(PeriodInActual*('Planificador de proyectos'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="TitleRegion..BO60" localSheetId="0">#REF!</definedName>
     <definedName name="TitleRegion..BO60" localSheetId="1">#REF!</definedName>
     <definedName name="TitleRegion..BO60">'Planificador de proyectos'!$B$3:$B$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Planificador de proyectos'!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -386,16 +387,19 @@
   <si>
     <t>Líder del proyecto / Diseño / Pruebas</t>
   </si>
+  <si>
+    <t>Desarrollo de manual de usuario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1140,8 +1144,8 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1304,42 +1308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="60" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="60" applyAlignment="1"/>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,69 +1324,105 @@
     <xf numFmtId="14" fontId="33" fillId="42" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="% completado" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Énfasis1" xfId="36" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="40" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="44" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="48" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="52" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="56" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="37" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="41" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="45" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="49" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="53" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="57" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="38" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="42" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="46" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="50" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="54" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="58" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="36" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="40" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="44" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="48" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="52" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="56" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="37" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="41" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="45" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="49" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="53" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="57" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="38" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="42" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="50" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="54" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="58" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="35" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="39" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="43" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="47" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="51" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="55" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Actividad" xfId="2" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Bueno" xfId="24" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="29" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="31" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="30" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="29" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="31" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="19" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="20" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Control del periodo resaltado" xfId="7" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="21" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="22" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Encabezados de los periodos" xfId="3" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Encabezados del proyecto" xfId="4" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Énfasis1" xfId="35" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="39" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="43" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="47" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="51" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="55" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="27" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Etiqueta" xfId="5" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="24" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="27" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Leyenda de la duración real" xfId="15" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Leyenda de la duración real (fuera del plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Leyenda del % completado (fuera del plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Leyenda del plan" xfId="14" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Millares" xfId="19" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Millares [0]" xfId="20" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Moneda" xfId="21" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moneda [0]" xfId="22" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="30" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="26" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="59" xr:uid="{A57A0695-4CFE-411D-8AEE-490258129C6F}"/>
     <cellStyle name="Normal 3" xfId="60" xr:uid="{0B5B435C-DB43-494C-8725-B89083EE1AF0}"/>
-    <cellStyle name="Notas" xfId="33" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentaje" xfId="23" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="33" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="28" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="23" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Porcentaje completado" xfId="6" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Salida" xfId="28" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="32" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="34" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Warning Text" xfId="32" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1809,17 +1813,17 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="54"/>
-    <col min="2" max="2" width="28" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="42"/>
+    <col min="2" max="2" width="28" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="54" customWidth="1"/>
-    <col min="6" max="16384" width="8" style="54"/>
+    <col min="4" max="4" width="22.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="8" style="42"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
         <v>29</v>
       </c>
@@ -1833,157 +1837,157 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="46" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1995,37 +1999,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A737E4F-E310-4E9B-BF9B-0DB097682913}">
-  <dimension ref="A5:T26"/>
+  <dimension ref="A5:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="25" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1" style="25" customWidth="1"/>
-    <col min="18" max="18" width="11" style="25"/>
-    <col min="19" max="19" width="1.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
@@ -2075,14 +2078,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="47">
         <v>44503</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="47">
         <v>44503</v>
       </c>
       <c r="D6" s="32">
@@ -2110,12 +2113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="32">
         <v>9</v>
       </c>
@@ -2141,14 +2144,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="47">
         <v>44505</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="47">
         <v>44505</v>
       </c>
       <c r="D8" s="32">
@@ -2176,12 +2179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -2196,19 +2199,19 @@
       <c r="P9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="41">
-        <f t="shared" ref="S9:S25" si="2">R9-D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S9:S26" si="2">R9-D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="55">
-        <v>44088</v>
-      </c>
-      <c r="C10" s="55">
-        <v>44092</v>
+      <c r="B10" s="43">
+        <v>44512</v>
+      </c>
+      <c r="C10" s="43">
+        <v>44515</v>
       </c>
       <c r="D10" s="32">
         <v>25</v>
@@ -2235,7 +2238,7 @@
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="R10" s="32">
-        <f t="shared" ref="R10:R25" si="3">SUM(F10:P10)</f>
+        <f t="shared" ref="R10:R26" si="3">SUM(F10:P10)</f>
         <v>25</v>
       </c>
       <c r="S10" s="41">
@@ -2243,15 +2246,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="55">
-        <v>44088</v>
-      </c>
-      <c r="C11" s="55">
-        <v>44092</v>
+      <c r="B11" s="43">
+        <v>44519</v>
+      </c>
+      <c r="C11" s="43">
+        <v>44522</v>
       </c>
       <c r="D11" s="32">
         <v>25</v>
@@ -2286,12 +2289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="34"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -2310,15 +2313,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="55">
-        <v>44095</v>
-      </c>
-      <c r="C13" s="55">
-        <v>44099</v>
+      <c r="B13" s="43">
+        <v>44526</v>
+      </c>
+      <c r="C13" s="43">
+        <v>44529</v>
       </c>
       <c r="D13" s="32">
         <v>10</v>
@@ -2345,12 +2348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="34"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -2369,15 +2372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="55">
-        <v>44102</v>
-      </c>
-      <c r="C15" s="55">
-        <v>44120</v>
+      <c r="B15" s="43">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="43">
+        <v>44536</v>
       </c>
       <c r="D15" s="32">
         <v>16</v>
@@ -2408,15 +2411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="55">
-        <v>44102</v>
-      </c>
-      <c r="C16" s="55">
-        <v>44120</v>
+      <c r="B16" s="43">
+        <v>44540</v>
+      </c>
+      <c r="C16" s="43">
+        <v>44543</v>
       </c>
       <c r="D16" s="32">
         <v>16</v>
@@ -2447,12 +2450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -2471,15 +2474,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="55">
-        <v>44120</v>
-      </c>
-      <c r="C18" s="55">
-        <v>44134</v>
+      <c r="B18" s="43">
+        <v>44547</v>
+      </c>
+      <c r="C18" s="43">
+        <v>44550</v>
       </c>
       <c r="D18" s="32">
         <v>11</v>
@@ -2506,15 +2509,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="55">
-        <v>44120</v>
-      </c>
-      <c r="C19" s="55">
-        <v>44134</v>
+      <c r="B19" s="43">
+        <v>44556</v>
+      </c>
+      <c r="C19" s="43">
+        <v>44559</v>
       </c>
       <c r="D19" s="32">
         <v>11</v>
@@ -2541,15 +2544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="55">
-        <v>44138</v>
-      </c>
-      <c r="C20" s="55">
-        <v>44148</v>
+      <c r="B20" s="43">
+        <v>44563</v>
+      </c>
+      <c r="C20" s="43">
+        <v>44566</v>
       </c>
       <c r="D20" s="32">
         <v>9</v>
@@ -2576,12 +2579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="34"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -2600,15 +2603,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="55">
-        <v>44151</v>
-      </c>
-      <c r="C22" s="55">
-        <v>44159</v>
+      <c r="B22" s="43">
+        <v>44570</v>
+      </c>
+      <c r="C22" s="43">
+        <v>44573</v>
       </c>
       <c r="D22" s="32">
         <v>7</v>
@@ -2635,22 +2638,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="55">
-        <v>44160</v>
-      </c>
-      <c r="C23" s="55">
-        <v>44168</v>
-      </c>
-      <c r="D23" s="32">
-        <v>7</v>
-      </c>
-      <c r="F23" s="40">
-        <v>7</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B23" s="43">
+        <v>44577</v>
+      </c>
+      <c r="C23" s="43">
+        <v>44580</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
@@ -2661,33 +2660,24 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
-      <c r="R23" s="32">
-        <f t="shared" si="3"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="41"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="43">
+        <v>44584</v>
+      </c>
+      <c r="C24" s="43">
+        <v>44587</v>
+      </c>
+      <c r="D24" s="32">
         <v>7</v>
       </c>
-      <c r="S23" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="55">
-        <v>44169</v>
-      </c>
-      <c r="C24" s="55">
-        <v>44182</v>
-      </c>
-      <c r="D24" s="32">
-        <v>5</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>65</v>
-      </c>
       <c r="F24" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -2701,31 +2691,31 @@
       <c r="P24" s="40"/>
       <c r="R24" s="32">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S24" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T24" s="37" t="s">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="43">
+        <v>44591</v>
+      </c>
+      <c r="C25" s="43">
+        <v>44594</v>
+      </c>
+      <c r="D25" s="32">
+        <v>5</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="59">
-        <v>44610</v>
-      </c>
-      <c r="C25" s="59">
-        <v>44610</v>
-      </c>
-      <c r="D25" s="32">
-        <v>2</v>
-      </c>
       <c r="F25" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -2739,69 +2729,107 @@
       <c r="P25" s="40"/>
       <c r="R25" s="32">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S25" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="22" t="s">
+      <c r="T25" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="47">
+        <v>44610</v>
+      </c>
+      <c r="C26" s="47">
+        <v>44610</v>
+      </c>
+      <c r="D26" s="32">
+        <v>2</v>
+      </c>
+      <c r="F26" s="40">
+        <v>2</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="R26" s="32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S26" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="22">
-        <f>SUM(D6:D25)</f>
+      <c r="D27" s="22">
+        <f>SUM(D6:D26)</f>
         <v>165</v>
       </c>
-      <c r="F26" s="22">
-        <f>SUM(F6:F25)</f>
+      <c r="F27" s="22">
+        <f>SUM(F6:F26)</f>
         <v>26</v>
       </c>
-      <c r="G26" s="22">
-        <f t="shared" ref="G26:P26" si="4">SUM(G6:G25)</f>
+      <c r="G27" s="22">
+        <f t="shared" ref="G27:P27" si="4">SUM(G6:G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H27" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I27" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J27" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K27" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L27" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M27" s="22">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N27" s="22">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O27" s="22">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P27" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R26" s="22">
-        <f>SUM(R6:R25)</f>
+      <c r="R27" s="22">
+        <f>SUM(R6:R26)</f>
         <v>165</v>
       </c>
     </row>
@@ -2823,20 +2851,20 @@
       <selection activeCell="B1" sqref="B1:U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="61" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="16" width="2.75" style="1"/>
-    <col min="17" max="17" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="16" width="2.6640625" style="1"/>
+    <col min="17" max="17" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="2.75" style="1"/>
+    <col min="19" max="21" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -2849,12 +2877,12 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2862,70 +2890,70 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="52"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="53"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="59"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="53"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="59"/>
       <c r="AJ2" s="20"/>
-      <c r="AK2" s="42" t="s">
+      <c r="AK2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="55" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -2951,13 +2979,13 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -3139,7 +3167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>67</v>
       </c>
@@ -3159,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>68</v>
       </c>
@@ -3179,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>69</v>
       </c>
@@ -3219,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -3239,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>70</v>
       </c>
@@ -3259,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>59</v>
       </c>
@@ -3279,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>60</v>
       </c>
@@ -3299,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
@@ -3319,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
@@ -3339,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3359,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>72</v>
       </c>
@@ -3379,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
@@ -3399,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3419,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>

--- a/Gestion/Plan, Equipo y Gantt.xlsx
+++ b/Gestion/Plan, Equipo y Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F181884-D50B-344E-A1EA-E69574E1CCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C41E7-2A60-AE40-BECC-C68CCA8A8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="20480" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="20480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="7" r:id="rId1"/>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5071603-33D0-457C-96A6-A7AF167AAD6F}">
   <dimension ref="B6:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="208" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A737E4F-E310-4E9B-BF9B-0DB097682913}">
   <dimension ref="A5:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2643,7 +2643,7 @@
         <v>81</v>
       </c>
       <c r="B23" s="43">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="C23" s="43">
         <v>44580</v>

--- a/Gestion/Plan, Equipo y Gantt.xlsx
+++ b/Gestion/Plan, Equipo y Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/packo/Documents/GitHub/ProyectoLibraryITSL/Gestion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C41E7-2A60-AE40-BECC-C68CCA8A8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0593789-99E3-B94B-9D2C-15D38B9579D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="20480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="7" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <definedName name="PorcentajeCompletado" localSheetId="0">Equipo!PercentCompleteBeyond*Equipo!PeriodInPlan</definedName>
     <definedName name="PorcentajeCompletado" localSheetId="1">Plan!PercentCompleteBeyond*Plan!PeriodInPlan</definedName>
     <definedName name="PorcentajeCompletado">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Planificador de proyectos'!$3:$4</definedName>
     <definedName name="Real" localSheetId="0">(Equipo!PeriodInActual*(#REF!&gt;0))*Equipo!PeriodInPlan</definedName>
     <definedName name="Real" localSheetId="1">(Plan!PeriodInActual*(#REF!&gt;0))*Plan!PeriodInPlan</definedName>
     <definedName name="Real">(PeriodInActual*('Planificador de proyectos'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="TitleRegion..BO60" localSheetId="0">#REF!</definedName>
     <definedName name="TitleRegion..BO60" localSheetId="1">#REF!</definedName>
     <definedName name="TitleRegion..BO60">'Planificador de proyectos'!$B$3:$B$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Planificador de proyectos'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Desarrollo de manual de mantenimiento</t>
   </si>
   <si>
-    <t>Semana de Segundas Oportunidades</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -389,19 +386,30 @@
   </si>
   <si>
     <t>Desarrollo de manual de usuario</t>
+  </si>
+  <si>
+    <t>El salario de desarrollador de software promedio en México es de $ 168,000 al año o $ 86.15 por hora.</t>
+  </si>
+  <si>
+    <t>PROYECTO BIBLIOTECAITSL
+MÓDULOS: Adquisiciones, Analisis/Captura, Administración.</t>
+  </si>
+  <si>
+    <t>Desarrollo de Manual de Usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -640,12 +648,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="43">
     <fill>
@@ -882,7 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,10 +1146,10 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1187,7 +1189,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,21 +1311,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="60" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="60" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="14" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="42" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1360,69 +1353,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="14" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="60" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="42" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="% completado" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent1" xfId="36" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="40" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="44" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="48" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="52" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="56" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="37" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="41" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="45" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="49" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="53" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="57" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="38" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="42" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="50" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="54" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="58" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="35" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="39" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="43" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="47" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="51" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="55" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="36" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="40" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="44" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="48" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="52" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="56" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="37" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="41" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="45" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="49" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="53" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="57" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="38" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="42" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="46" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="50" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="54" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="58" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Actividad" xfId="2" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="29" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="31" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="19" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="20" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="24" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="29" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="31" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="30" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Control del periodo resaltado" xfId="7" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Currency" xfId="21" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="22" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezados de los periodos" xfId="3" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Encabezados del proyecto" xfId="4" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Énfasis1" xfId="35" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="39" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="43" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="47" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="51" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="55" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="27" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Etiqueta" xfId="5" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="24" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="27" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Leyenda de la duración real" xfId="15" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Leyenda de la duración real (fuera del plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Leyenda del % completado (fuera del plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Leyenda del plan" xfId="14" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Linked Cell" xfId="30" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="19" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Millares [0]" xfId="20" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Moneda" xfId="21" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moneda [0]" xfId="22" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="26" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="59" xr:uid="{A57A0695-4CFE-411D-8AEE-490258129C6F}"/>
     <cellStyle name="Normal 3" xfId="60" xr:uid="{0B5B435C-DB43-494C-8725-B89083EE1AF0}"/>
-    <cellStyle name="Note" xfId="33" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="28" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="23" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="33" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="23" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Porcentaje completado" xfId="6" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="28" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="32" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="34" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Warning Text" xfId="32" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1809,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5071603-33D0-457C-96A6-A7AF167AAD6F}">
   <dimension ref="B6:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="208" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A9" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1844,11 +1861,11 @@
       <c r="C7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>76</v>
+      <c r="D7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="48" x14ac:dyDescent="0.2">
@@ -1858,11 +1875,11 @@
       <c r="C8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>76</v>
+      <c r="E8" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="32" x14ac:dyDescent="0.2">
@@ -1872,11 +1889,11 @@
       <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>77</v>
+      <c r="E9" s="44" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -1886,11 +1903,11 @@
       <c r="C10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>78</v>
+      <c r="E10" s="44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="32" x14ac:dyDescent="0.2">
@@ -1900,11 +1917,11 @@
       <c r="C11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>77</v>
+      <c r="E11" s="44" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="32" x14ac:dyDescent="0.2">
@@ -1914,11 +1931,11 @@
       <c r="C12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>77</v>
+      <c r="E12" s="44" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="48" x14ac:dyDescent="0.2">
@@ -1928,11 +1945,11 @@
       <c r="C13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>76</v>
+      <c r="E13" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="64" x14ac:dyDescent="0.2">
@@ -1942,11 +1959,11 @@
       <c r="C14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>75</v>
+      <c r="E14" s="44" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="64" x14ac:dyDescent="0.2">
@@ -1956,11 +1973,11 @@
       <c r="C15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>75</v>
+      <c r="E15" s="44" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="64" x14ac:dyDescent="0.2">
@@ -1970,11 +1987,11 @@
       <c r="C16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>75</v>
+      <c r="E16" s="44" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="48" x14ac:dyDescent="0.2">
@@ -1984,11 +2001,11 @@
       <c r="C17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>76</v>
+      <c r="E17" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1999,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A737E4F-E310-4E9B-BF9B-0DB097682913}">
-  <dimension ref="A5:T27"/>
+  <dimension ref="A2:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2012,22 +2029,93 @@
     <col min="3" max="3" width="21.5" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="25" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1" style="25" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="F2" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="G4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="H4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="I4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="J4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="K4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="L4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="M4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="N4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="O4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="P4" s="63">
+        <v>86.15</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="64">
+        <v>86.15</v>
+      </c>
+    </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>13</v>
@@ -2075,17 +2163,17 @@
         <v>56</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="58">
         <v>44503</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="58">
         <v>44503</v>
       </c>
       <c r="D6" s="32">
@@ -2105,11 +2193,11 @@
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
       <c r="R6" s="32">
-        <f t="shared" ref="R6:R7" si="0">SUM(F6:P6)</f>
+        <f>SUM(F6:P6)</f>
         <v>2</v>
       </c>
       <c r="S6" s="41">
-        <f t="shared" ref="S6:S7" si="1">R6-D6</f>
+        <f t="shared" ref="S6:S7" si="0">R6-D6</f>
         <v>0</v>
       </c>
     </row>
@@ -2117,14 +2205,18 @@
       <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="57">
+        <v>44504</v>
+      </c>
+      <c r="C7" s="57">
+        <v>44504</v>
+      </c>
       <c r="D7" s="32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
@@ -2136,11 +2228,11 @@
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
       <c r="R7" s="32">
+        <f t="shared" ref="R7:R26" si="1">SUM(F7:P7)</f>
+        <v>7</v>
+      </c>
+      <c r="S7" s="41">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S7" s="41">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2148,14 +2240,14 @@
       <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="58">
         <v>44505</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="58">
         <v>44505</v>
       </c>
       <c r="D8" s="32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -2168,11 +2260,11 @@
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R8" s="32">
-        <f>SUM(F8:P8)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="S8" s="41">
         <f>R8-D8</f>
@@ -2183,8 +2275,8 @@
       <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -2207,10 +2299,10 @@
       <c r="A10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="58">
         <v>44512</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="58">
         <v>44515</v>
       </c>
       <c r="D10" s="32">
@@ -2238,7 +2330,7 @@
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="R10" s="32">
-        <f t="shared" ref="R10:R26" si="3">SUM(F10:P10)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S10" s="41">
@@ -2250,10 +2342,10 @@
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="58">
         <v>44519</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="58">
         <v>44522</v>
       </c>
       <c r="D11" s="32">
@@ -2281,7 +2373,7 @@
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="R11" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S11" s="41">
@@ -2293,8 +2385,8 @@
       <c r="A12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -2317,18 +2409,16 @@
       <c r="A13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="58">
         <v>44526</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="58">
         <v>44529</v>
       </c>
       <c r="D13" s="32">
-        <v>10</v>
-      </c>
-      <c r="F13" s="40">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
@@ -2337,11 +2427,13 @@
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="O13" s="40">
+        <v>12</v>
+      </c>
       <c r="P13" s="40"/>
       <c r="R13" s="32">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="S13" s="41">
         <f t="shared" si="2"/>
@@ -2353,7 +2445,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="44"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -2376,16 +2468,18 @@
       <c r="A15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="58">
         <v>44533</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="58">
         <v>44536</v>
       </c>
       <c r="D15" s="32">
-        <v>16</v>
-      </c>
-      <c r="F15" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="F15" s="40">
+        <v>5</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -2403,8 +2497,8 @@
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
       <c r="R15" s="32">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="S15" s="41">
         <f t="shared" si="2"/>
@@ -2415,16 +2509,18 @@
       <c r="A16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="58">
         <v>44540</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="58">
         <v>44543</v>
       </c>
       <c r="D16" s="32">
-        <v>16</v>
-      </c>
-      <c r="F16" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="F16" s="40">
+        <v>5</v>
+      </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
@@ -2442,8 +2538,8 @@
       <c r="O16" s="40"/>
       <c r="P16" s="40"/>
       <c r="R16" s="32">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="S16" s="41">
         <f t="shared" si="2"/>
@@ -2455,7 +2551,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="33"/>
-      <c r="C17" s="44"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -2478,10 +2574,10 @@
       <c r="A18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="58">
         <v>44547</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="58">
         <v>44550</v>
       </c>
       <c r="D18" s="32">
@@ -2501,7 +2597,7 @@
       </c>
       <c r="P18" s="40"/>
       <c r="R18" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S18" s="41">
@@ -2513,10 +2609,10 @@
       <c r="A19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="58">
         <v>44556</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="58">
         <v>44559</v>
       </c>
       <c r="D19" s="32">
@@ -2536,7 +2632,7 @@
       </c>
       <c r="P19" s="40"/>
       <c r="R19" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="S19" s="41">
@@ -2548,10 +2644,10 @@
       <c r="A20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="58">
         <v>44563</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="58">
         <v>44566</v>
       </c>
       <c r="D20" s="32">
@@ -2571,7 +2667,7 @@
       </c>
       <c r="P20" s="40"/>
       <c r="R20" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="S20" s="41">
@@ -2584,7 +2680,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="33"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -2607,16 +2703,18 @@
       <c r="A22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="58">
         <v>44570</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="58">
         <v>44573</v>
       </c>
       <c r="D22" s="32">
         <v>7</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="40">
+        <v>4</v>
+      </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
@@ -2625,12 +2723,12 @@
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O22" s="40"/>
       <c r="P22" s="40"/>
       <c r="R22" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="S22" s="41">
@@ -2640,15 +2738,17 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="43">
+        <v>80</v>
+      </c>
+      <c r="B23" s="58">
         <v>44578</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="58">
         <v>44580</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="32">
+        <v>8</v>
+      </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -2656,41 +2756,49 @@
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="M23" s="40">
+        <v>8</v>
+      </c>
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="41"/>
+      <c r="R23" s="32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S23" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="58">
         <v>44584</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="58">
         <v>44587</v>
       </c>
       <c r="D24" s="32">
         <v>7</v>
       </c>
-      <c r="F24" s="40">
-        <v>7</v>
-      </c>
+      <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="L24" s="40">
+        <v>7</v>
+      </c>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
       <c r="R24" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="S24" s="41">
@@ -2702,18 +2810,16 @@
       <c r="A25" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="58">
         <v>44591</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="58">
         <v>44594</v>
       </c>
       <c r="D25" s="32">
-        <v>5</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>65</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E25" s="37"/>
       <c r="F25" s="40">
         <v>5</v>
       </c>
@@ -2725,36 +2831,34 @@
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
+      <c r="O25" s="40">
+        <v>2</v>
+      </c>
       <c r="P25" s="40"/>
       <c r="R25" s="32">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="S25" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T25" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="T25" s="37"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="58">
         <v>44610</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="58">
         <v>44610</v>
       </c>
       <c r="D26" s="32">
         <v>2</v>
       </c>
-      <c r="F26" s="40">
-        <v>2</v>
-      </c>
+      <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
@@ -2763,10 +2867,12 @@
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
+      <c r="O26" s="40">
+        <v>2</v>
+      </c>
       <c r="P26" s="40"/>
       <c r="R26" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S26" s="41">
@@ -2778,62 +2884,117 @@
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="22">
         <f>SUM(D6:D26)</f>
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F27" s="22">
         <f>SUM(F6:F26)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" ref="G27:P27" si="4">SUM(G6:G26)</f>
+        <f t="shared" ref="G27:P27" si="3">SUM(G6:G26)</f>
+        <v>17</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H27" s="22">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I27" s="22">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="22">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K27" s="22">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L27" s="22">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="M27" s="22">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
       <c r="N27" s="22">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="P27" s="22">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="R27" s="22">
         <f>SUM(R6:R26)</f>
-        <v>165</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F28" s="65">
+        <f>F4*F27</f>
+        <v>1809.15</v>
+      </c>
+      <c r="G28" s="65">
+        <f t="shared" ref="G28:P28" si="4">G4*G27</f>
+        <v>1464.5500000000002</v>
+      </c>
+      <c r="H28" s="65">
+        <f t="shared" si="4"/>
+        <v>861.5</v>
+      </c>
+      <c r="I28" s="65">
+        <f t="shared" si="4"/>
+        <v>861.5</v>
+      </c>
+      <c r="J28" s="65">
+        <f t="shared" si="4"/>
+        <v>861.5</v>
+      </c>
+      <c r="K28" s="65">
+        <f t="shared" si="4"/>
+        <v>861.5</v>
+      </c>
+      <c r="L28" s="65">
+        <f t="shared" si="4"/>
+        <v>1464.5500000000002</v>
+      </c>
+      <c r="M28" s="65">
+        <f t="shared" si="4"/>
+        <v>1636.8500000000001</v>
+      </c>
+      <c r="N28" s="65">
+        <f t="shared" si="4"/>
+        <v>1206.1000000000001</v>
+      </c>
+      <c r="O28" s="65">
+        <f t="shared" si="4"/>
+        <v>4049.05</v>
+      </c>
+      <c r="P28" s="65">
+        <f t="shared" si="4"/>
+        <v>689.2</v>
+      </c>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66">
+        <f>R27*R4</f>
+        <v>15765.45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:P3"/>
+    <mergeCell ref="A2:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2845,10 +3006,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO19"/>
+  <dimension ref="B1:BO20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2869,7 +3030,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2878,11 +3039,11 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2890,70 +3051,70 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="59"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="48" t="s">
+      <c r="AC2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="59"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="56"/>
       <c r="AJ2" s="20"/>
-      <c r="AK2" s="48" t="s">
+      <c r="AK2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -2980,12 +3141,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -3169,7 +3330,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -3178,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -3189,7 +3350,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -3198,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -3218,10 +3379,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -3229,19 +3390,19 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -3255,13 +3416,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -3269,19 +3430,19 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -3292,16 +3453,16 @@
         <v>59</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -3312,16 +3473,16 @@
         <v>60</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -3329,19 +3490,19 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="7">
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -3352,16 +3513,16 @@
         <v>62</v>
       </c>
       <c r="C14" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -3375,13 +3536,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -3389,19 +3550,19 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -3409,39 +3570,37 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -3449,21 +3608,41 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3482,7 +3661,7 @@
     <mergeCell ref="W2:AA2"/>
     <mergeCell ref="AC2:AI2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO19">
+  <conditionalFormatting sqref="H5:BO20">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
@@ -3508,7 +3687,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:BO20">
+  <conditionalFormatting sqref="B21:BO21">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/Gestion/Plan, Equipo y Gantt.xlsx
+++ b/Gestion/Plan, Equipo y Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/packo/Documents/GitHub/ProyectoLibraryITSL/Gestion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0593789-99E3-B94B-9D2C-15D38B9579D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D219F-59D3-0E4D-88DC-5A2F0911D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="7" r:id="rId1"/>
@@ -2018,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A737E4F-E310-4E9B-BF9B-0DB097682913}">
   <dimension ref="A2:T28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3008,8 +3008,8 @@
   </sheetPr>
   <dimension ref="B1:BO20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
